--- a/ExportData/Test 2 User 4.xlsx
+++ b/ExportData/Test 2 User 4.xlsx
@@ -17,10 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="DD/MM/YYYY HH:MM"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -444,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:M239"/>
+  <dimension ref="B3:M291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +532,7 @@
         <v>44228</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>42.84</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -565,7 +564,7 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02</v>
+        <v>42.87</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.02</v>
@@ -597,7 +596,7 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04</v>
+        <v>42.89</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.02</v>
@@ -629,7 +628,7 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>42.92</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02</v>
@@ -661,7 +660,7 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09</v>
+        <v>42.94</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0.02</v>
@@ -693,7 +692,7 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.12</v>
+        <v>42.97</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0.02</v>
@@ -725,7 +724,7 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.14</v>
+        <v>42.99</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02</v>
@@ -757,7 +756,7 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.17</v>
+        <v>43.02</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0.02</v>
@@ -789,7 +788,7 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.19</v>
+        <v>43.04</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0.02</v>
@@ -821,7 +820,7 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.22</v>
+        <v>43.07</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02</v>
@@ -853,7 +852,7 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.24</v>
+        <v>43.09</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0.02</v>
@@ -885,7 +884,7 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.27</v>
+        <v>43.12</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0.02</v>
@@ -917,7 +916,7 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.29</v>
+        <v>43.14</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.02</v>
@@ -949,7 +948,7 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.32</v>
+        <v>43.17</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0.02</v>
@@ -981,7 +980,7 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.34</v>
+        <v>43.19</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0.02</v>
@@ -1013,7 +1012,7 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.37</v>
+        <v>43.22</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.02</v>
@@ -1045,7 +1044,7 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.39</v>
+        <v>43.24</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0.02</v>
@@ -1077,7 +1076,7 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.42</v>
+        <v>43.27</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0.02</v>
@@ -1109,7 +1108,7 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.44</v>
+        <v>43.29</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.02</v>
@@ -1141,7 +1140,7 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.47</v>
+        <v>43.32</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0.02</v>
@@ -1173,7 +1172,7 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.49</v>
+        <v>43.34</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0.02</v>
@@ -1205,7 +1204,7 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.52</v>
+        <v>43.37</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.02</v>
@@ -1237,7 +1236,7 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.52</v>
+        <v>43.39</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0.02</v>
@@ -1269,7 +1268,7 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.52</v>
+        <v>43.42</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0.02</v>
@@ -1301,7 +1300,7 @@
         <v>44228.25</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.64</v>
+        <v>43.49</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1333,7 +1332,7 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.64</v>
+        <v>43.57</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1365,7 +1364,7 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.79</v>
+        <v>43.64</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1397,7 +1396,7 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.87</v>
+        <v>43.72</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1429,7 +1428,7 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.9399999999999999</v>
+        <v>43.79</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1461,7 +1460,7 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>1.09</v>
+        <v>43.94</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0.14</v>
@@ -1493,7 +1492,7 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>1.24</v>
+        <v>44.09</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0.14</v>
@@ -1525,7 +1524,7 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.39</v>
+        <v>44.24</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0.14</v>
@@ -1557,7 +1556,7 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.54</v>
+        <v>44.39</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0.14</v>
@@ -1589,7 +1588,7 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>1.73</v>
+        <v>44.58</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0.18</v>
@@ -1621,7 +1620,7 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>2.03</v>
+        <v>44.88</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0.29</v>
@@ -1653,7 +1652,7 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>2.33</v>
+        <v>45.18</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>0.29</v>
@@ -1685,7 +1684,7 @@
         <v>44228.375</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>2.63</v>
+        <v>45.48</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0.29</v>
@@ -1717,10 +1716,10 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.89</v>
+        <v>45.75</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>0</v>
@@ -1749,7 +1748,7 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.16</v>
+        <v>46.01</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>0.26</v>
@@ -1781,7 +1780,7 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>3.42</v>
+        <v>46.27</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>0.26</v>
@@ -1813,7 +1812,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>3.68</v>
+        <v>46.54</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>0.26</v>
@@ -1845,7 +1844,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>3.87</v>
+        <v>46.73</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>0.18</v>
@@ -1877,7 +1876,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>4.06</v>
+        <v>46.92</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>0.18</v>
@@ -1909,7 +1908,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>4.25</v>
+        <v>47.11</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>0.18</v>
@@ -1941,7 +1940,7 @@
         <v>44228.45833333334</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.44</v>
+        <v>47.3</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>0.18</v>
@@ -1973,7 +1972,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>4.63</v>
+        <v>47.49</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>0.18</v>
@@ -2005,10 +2004,10 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>4.82</v>
+        <v>47.73</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>0</v>
@@ -2037,10 +2036,10 @@
         <v>44228.48958333334</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>5.01</v>
+        <v>47.98</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>0</v>
@@ -2069,10 +2068,10 @@
         <v>44228.5</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>5.15</v>
+        <v>48.15</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>0</v>
@@ -2101,7 +2100,7 @@
         <v>44228.51041666666</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>5.29</v>
+        <v>48.29</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0.13</v>
@@ -2133,7 +2132,7 @@
         <v>44228.52083333334</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.43</v>
+        <v>48.43</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>0.13</v>
@@ -2165,7 +2164,7 @@
         <v>44228.53125</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>5.57</v>
+        <v>48.57</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>0.13</v>
@@ -2197,7 +2196,7 @@
         <v>44228.54166666666</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>5.71</v>
+        <v>48.71</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>0.13</v>
@@ -2229,10 +2228,10 @@
         <v>44228.55208333334</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>5.9</v>
+        <v>48.9</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>0</v>
@@ -2261,7 +2260,7 @@
         <v>44228.5625</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>6.09</v>
+        <v>49.09</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>0.18</v>
@@ -2293,7 +2292,7 @@
         <v>44228.57291666666</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>6.28</v>
+        <v>49.28</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>0.18</v>
@@ -2325,10 +2324,10 @@
         <v>44228.58333333334</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>6.47</v>
+        <v>49.42</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>0</v>
@@ -2357,7 +2356,7 @@
         <v>44228.59375</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>6.61</v>
+        <v>49.56</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>0.13</v>
@@ -2389,7 +2388,7 @@
         <v>44228.60416666666</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>6.75</v>
+        <v>49.7</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>0.13</v>
@@ -2421,7 +2420,7 @@
         <v>44228.61458333334</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>6.89</v>
+        <v>49.84</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>0.13</v>
@@ -2453,7 +2452,7 @@
         <v>44228.625</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>7.03</v>
+        <v>49.98</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>0.13</v>
@@ -2485,7 +2484,7 @@
         <v>44228.63541666666</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>7.2</v>
+        <v>50.15</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>0.16</v>
@@ -2517,7 +2516,7 @@
         <v>44228.64583333334</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>7.37</v>
+        <v>50.32</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>0.16</v>
@@ -2549,7 +2548,7 @@
         <v>44228.65625</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>7.54</v>
+        <v>50.49</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>0.16</v>
@@ -2581,7 +2580,7 @@
         <v>44228.66666666666</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>7.78</v>
+        <v>50.73</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>0.24</v>
@@ -2613,7 +2612,7 @@
         <v>44228.67708333334</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>8.08</v>
+        <v>51.03</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>0.29</v>
@@ -2645,7 +2644,7 @@
         <v>44228.6875</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>8.380000000000001</v>
+        <v>51.33</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>0.29</v>
@@ -2677,7 +2676,7 @@
         <v>44228.69791666666</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>8.68</v>
+        <v>51.63</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>0.29</v>
@@ -2709,7 +2708,7 @@
         <v>44228.70833333334</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>8.98</v>
+        <v>51.93</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>0.29</v>
@@ -2741,7 +2740,7 @@
         <v>44228.71875</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>9.279999999999999</v>
+        <v>52.23</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>0.29</v>
@@ -2773,7 +2772,7 @@
         <v>44228.72916666666</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>9.58</v>
+        <v>52.53</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>0.29</v>
@@ -2805,7 +2804,7 @@
         <v>44228.73958333334</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>9.880000000000001</v>
+        <v>52.83</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>0.29</v>
@@ -2837,7 +2836,7 @@
         <v>44228.75</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>10.18</v>
+        <v>53.13</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>0.29</v>
@@ -2869,7 +2868,7 @@
         <v>44228.76041666666</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>10.48</v>
+        <v>53.43</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>0.29</v>
@@ -2901,7 +2900,7 @@
         <v>44228.77083333334</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>10.78</v>
+        <v>53.73</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>0.29</v>
@@ -2933,7 +2932,7 @@
         <v>44228.78125</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>11.08</v>
+        <v>53.73</v>
       </c>
       <c r="D79" s="5" t="n">
         <v>0.29</v>
@@ -2965,7 +2964,7 @@
         <v>44228.79166666666</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>11.38</v>
+        <v>53.73</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>0.29</v>
@@ -2997,7 +2996,7 @@
         <v>44228.80208333334</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>11.68</v>
+        <v>53.73</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>0.29</v>
@@ -3029,7 +3028,7 @@
         <v>44228.8125</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>11.98</v>
+        <v>53.73</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>0.29</v>
@@ -3061,7 +3060,7 @@
         <v>44228.82291666666</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>12.28</v>
+        <v>53.73</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>0.29</v>
@@ -3093,10 +3092,10 @@
         <v>44228.83333333334</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>12.58</v>
+        <v>54.43</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>0</v>
@@ -3125,7 +3124,7 @@
         <v>44228.84375</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>12.88</v>
+        <v>54.73</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>0.29</v>
@@ -3157,7 +3156,7 @@
         <v>44228.85416666666</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>13.18</v>
+        <v>54.73</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>0.29</v>
@@ -3189,7 +3188,7 @@
         <v>44228.86458333334</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>13.48</v>
+        <v>55.03</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>0.29</v>
@@ -3221,7 +3220,7 @@
         <v>44228.875</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>13.78</v>
+        <v>55.63</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>0.29</v>
@@ -3253,10 +3252,10 @@
         <v>44228.88541666666</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>13.86</v>
+        <v>55.93</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="E89" s="6" t="n">
         <v>0</v>
@@ -3285,7 +3284,7 @@
         <v>44228.89583333334</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>13.93</v>
+        <v>56.01</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3317,7 +3316,7 @@
         <v>44228.90625</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>14.01</v>
+        <v>56.01</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3349,10 +3348,10 @@
         <v>44228.91666666666</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>14.03</v>
+        <v>56.08</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E92" s="6" t="n">
         <v>0</v>
@@ -3381,7 +3380,7 @@
         <v>44228.92708333334</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>14.06</v>
+        <v>56.18</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>0.02</v>
@@ -3413,7 +3412,7 @@
         <v>44228.9375</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>14.08</v>
+        <v>56.21</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>0.02</v>
@@ -3445,7 +3444,7 @@
         <v>44228.94791666666</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>14.11</v>
+        <v>56.23</v>
       </c>
       <c r="D95" s="5" t="n">
         <v>0.02</v>
@@ -3477,7 +3476,7 @@
         <v>44228.95833333334</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>14.13</v>
+        <v>56.23</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>0.02</v>
@@ -3509,7 +3508,7 @@
         <v>44228.96875</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>14.16</v>
+        <v>56.26</v>
       </c>
       <c r="D97" s="5" t="n">
         <v>0.02</v>
@@ -3541,7 +3540,7 @@
         <v>44228.97916666666</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>14.18</v>
+        <v>56.26</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>0.02</v>
@@ -3573,7 +3572,7 @@
         <v>44228.98958333334</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>14.21</v>
+        <v>56.31</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>0.02</v>
@@ -3605,7 +3604,7 @@
         <v>44229</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>14.23</v>
+        <v>56.31</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>0.02</v>
@@ -3637,7 +3636,7 @@
         <v>44229.01041666666</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>14.26</v>
+        <v>56.31</v>
       </c>
       <c r="D101" s="5" t="n">
         <v>0.02</v>
@@ -3669,7 +3668,7 @@
         <v>44229.02083333334</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>14.28</v>
+        <v>56.38</v>
       </c>
       <c r="D102" s="5" t="n">
         <v>0.02</v>
@@ -3701,7 +3700,7 @@
         <v>44229.03125</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>14.31</v>
+        <v>56.46</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>0.02</v>
@@ -3733,7 +3732,7 @@
         <v>44229.04166666666</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>14.33</v>
+        <v>56.48</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>0.02</v>
@@ -3765,7 +3764,7 @@
         <v>44229.05208333334</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>14.36</v>
+        <v>56.51</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>0.02</v>
@@ -3797,7 +3796,7 @@
         <v>44229.0625</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>14.38</v>
+        <v>56.53</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>0.02</v>
@@ -3829,7 +3828,7 @@
         <v>44229.07291666666</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>14.41</v>
+        <v>56.56</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>0.02</v>
@@ -3861,7 +3860,7 @@
         <v>44229.08333333334</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>14.43</v>
+        <v>56.58</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>0.02</v>
@@ -3893,7 +3892,7 @@
         <v>44229.09375</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>14.46</v>
+        <v>56.61</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>0.02</v>
@@ -3925,7 +3924,7 @@
         <v>44229.10416666666</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>14.48</v>
+        <v>56.63</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>0.02</v>
@@ -3957,7 +3956,7 @@
         <v>44229.11458333334</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>14.51</v>
+        <v>56.66</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>0.02</v>
@@ -3989,7 +3988,7 @@
         <v>44229.125</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>14.53</v>
+        <v>56.68</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>0.02</v>
@@ -4021,7 +4020,7 @@
         <v>44229.13541666666</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>14.56</v>
+        <v>56.71</v>
       </c>
       <c r="D113" s="5" t="n">
         <v>0.02</v>
@@ -4053,7 +4052,7 @@
         <v>44229.14583333334</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>14.58</v>
+        <v>56.73</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>0.02</v>
@@ -4085,7 +4084,7 @@
         <v>44229.15625</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>14.61</v>
+        <v>56.76</v>
       </c>
       <c r="D115" s="5" t="n">
         <v>0.02</v>
@@ -4117,7 +4116,7 @@
         <v>44229.16666666666</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>14.63</v>
+        <v>56.78</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>0.02</v>
@@ -4149,7 +4148,7 @@
         <v>44229.17708333334</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>14.66</v>
+        <v>56.81</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>0.02</v>
@@ -4181,7 +4180,7 @@
         <v>44229.1875</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>14.68</v>
+        <v>56.83</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>0.02</v>
@@ -4213,7 +4212,7 @@
         <v>44229.19791666666</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>14.71</v>
+        <v>56.86</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>0.02</v>
@@ -4245,7 +4244,7 @@
         <v>44229.20833333334</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>14.73</v>
+        <v>56.88</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>0.02</v>
@@ -4277,7 +4276,7 @@
         <v>44229.21875</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>14.76</v>
+        <v>56.91</v>
       </c>
       <c r="D121" s="5" t="n">
         <v>0.02</v>
@@ -4309,7 +4308,7 @@
         <v>44229.22916666666</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>14.78</v>
+        <v>56.93</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>0.02</v>
@@ -4341,7 +4340,7 @@
         <v>44229.23958333334</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>14.81</v>
+        <v>56.96</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>0.02</v>
@@ -4373,7 +4372,7 @@
         <v>44229.25</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>14.88</v>
+        <v>57.03</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4405,7 +4404,7 @@
         <v>44229.26041666666</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>14.96</v>
+        <v>57.11</v>
       </c>
       <c r="D125" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4437,7 +4436,7 @@
         <v>44229.27083333334</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>15.03</v>
+        <v>57.18</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4469,7 +4468,7 @@
         <v>44229.28125</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>15.11</v>
+        <v>57.26</v>
       </c>
       <c r="D127" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4501,7 +4500,7 @@
         <v>44229.29166666666</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>15.18</v>
+        <v>57.33</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4533,7 +4532,7 @@
         <v>44229.30208333334</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>15.33</v>
+        <v>57.48</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>0.14</v>
@@ -4565,7 +4564,7 @@
         <v>44229.3125</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>15.48</v>
+        <v>57.63</v>
       </c>
       <c r="D130" s="5" t="n">
         <v>0.14</v>
@@ -4597,7 +4596,7 @@
         <v>44229.32291666666</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>15.63</v>
+        <v>57.78</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>0.14</v>
@@ -4629,7 +4628,7 @@
         <v>44229.33333333334</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>15.78</v>
+        <v>57.93</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>0.14</v>
@@ -4661,7 +4660,7 @@
         <v>44229.34375</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>15.97</v>
+        <v>58.12</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>0.18</v>
@@ -4693,7 +4692,7 @@
         <v>44229.35416666666</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>16.27</v>
+        <v>58.42</v>
       </c>
       <c r="D134" s="5" t="n">
         <v>0.29</v>
@@ -4725,7 +4724,7 @@
         <v>44229.36458333334</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>16.57</v>
+        <v>58.72</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>0.29</v>
@@ -4757,7 +4756,7 @@
         <v>44229.375</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>16.87</v>
+        <v>59.02</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>0.29</v>
@@ -4789,7 +4788,7 @@
         <v>44229.38541666666</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>17.13</v>
+        <v>59.28</v>
       </c>
       <c r="D137" s="5" t="n">
         <v>0.26</v>
@@ -4821,7 +4820,7 @@
         <v>44229.39583333334</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>17.4</v>
+        <v>59.55</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>0.26</v>
@@ -4853,7 +4852,7 @@
         <v>44229.40625</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>17.66</v>
+        <v>59.81</v>
       </c>
       <c r="D139" s="5" t="n">
         <v>0.26</v>
@@ -4885,7 +4884,7 @@
         <v>44229.41666666666</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>17.92</v>
+        <v>60.07</v>
       </c>
       <c r="D140" s="5" t="n">
         <v>0.26</v>
@@ -4917,7 +4916,7 @@
         <v>44229.42708333334</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>18.11</v>
+        <v>60.26</v>
       </c>
       <c r="D141" s="5" t="n">
         <v>0.18</v>
@@ -4949,7 +4948,7 @@
         <v>44229.4375</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>18.3</v>
+        <v>60.45</v>
       </c>
       <c r="D142" s="5" t="n">
         <v>0.18</v>
@@ -4981,7 +4980,7 @@
         <v>44229.44791666666</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>18.49</v>
+        <v>60.64</v>
       </c>
       <c r="D143" s="5" t="n">
         <v>0.18</v>
@@ -5013,7 +5012,7 @@
         <v>44229.45833333334</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>18.68</v>
+        <v>60.83</v>
       </c>
       <c r="D144" s="5" t="n">
         <v>0.18</v>
@@ -5045,7 +5044,7 @@
         <v>44229.46875</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>18.87</v>
+        <v>61.02</v>
       </c>
       <c r="D145" s="5" t="n">
         <v>0.18</v>
@@ -5077,10 +5076,10 @@
         <v>44229.47916666666</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>19.06</v>
+        <v>61.27</v>
       </c>
       <c r="D146" s="5" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>0</v>
@@ -5109,10 +5108,10 @@
         <v>44229.48958333334</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>19.25</v>
+        <v>61.52</v>
       </c>
       <c r="D147" s="5" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>0</v>
@@ -5141,10 +5140,10 @@
         <v>44229.5</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>19.39</v>
+        <v>61.69</v>
       </c>
       <c r="D148" s="5" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>0</v>
@@ -5173,7 +5172,7 @@
         <v>44229.51041666666</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>19.53</v>
+        <v>61.83</v>
       </c>
       <c r="D149" s="5" t="n">
         <v>0.13</v>
@@ -5205,7 +5204,7 @@
         <v>44229.52083333334</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>19.67</v>
+        <v>61.97</v>
       </c>
       <c r="D150" s="5" t="n">
         <v>0.13</v>
@@ -5237,7 +5236,7 @@
         <v>44229.53125</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>19.81</v>
+        <v>62.11</v>
       </c>
       <c r="D151" s="5" t="n">
         <v>0.13</v>
@@ -5269,7 +5268,7 @@
         <v>44229.54166666666</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>19.95</v>
+        <v>62.25</v>
       </c>
       <c r="D152" s="5" t="n">
         <v>0.13</v>
@@ -5301,10 +5300,10 @@
         <v>44229.55208333334</v>
       </c>
       <c r="C153" s="5" t="n">
-        <v>20.14</v>
+        <v>62.44</v>
       </c>
       <c r="D153" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>0</v>
@@ -5333,7 +5332,7 @@
         <v>44229.5625</v>
       </c>
       <c r="C154" s="5" t="n">
-        <v>20.33</v>
+        <v>62.62</v>
       </c>
       <c r="D154" s="5" t="n">
         <v>0.18</v>
@@ -5365,7 +5364,7 @@
         <v>44229.57291666666</v>
       </c>
       <c r="C155" s="5" t="n">
-        <v>20.52</v>
+        <v>62.81</v>
       </c>
       <c r="D155" s="5" t="n">
         <v>0.18</v>
@@ -5397,10 +5396,10 @@
         <v>44229.58333333334</v>
       </c>
       <c r="C156" s="5" t="n">
-        <v>20.71</v>
+        <v>62.95</v>
       </c>
       <c r="D156" s="5" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="E156" s="6" t="n">
         <v>0</v>
@@ -5429,10 +5428,10 @@
         <v>44229.59375</v>
       </c>
       <c r="C157" s="5" t="n">
-        <v>20.87</v>
+        <v>63.09</v>
       </c>
       <c r="D157" s="5" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>0</v>
@@ -5461,7 +5460,7 @@
         <v>44229.60416666666</v>
       </c>
       <c r="C158" s="5" t="n">
-        <v>21.01</v>
+        <v>63.23</v>
       </c>
       <c r="D158" s="5" t="n">
         <v>0.13</v>
@@ -5493,7 +5492,7 @@
         <v>44229.61458333334</v>
       </c>
       <c r="C159" s="5" t="n">
-        <v>21.15</v>
+        <v>63.37</v>
       </c>
       <c r="D159" s="5" t="n">
         <v>0.13</v>
@@ -5525,7 +5524,7 @@
         <v>44229.625</v>
       </c>
       <c r="C160" s="5" t="n">
-        <v>21.29</v>
+        <v>63.51</v>
       </c>
       <c r="D160" s="5" t="n">
         <v>0.13</v>
@@ -5557,7 +5556,7 @@
         <v>44229.63541666666</v>
       </c>
       <c r="C161" s="5" t="n">
-        <v>21.46</v>
+        <v>63.68</v>
       </c>
       <c r="D161" s="5" t="n">
         <v>0.16</v>
@@ -5589,7 +5588,7 @@
         <v>44229.64583333334</v>
       </c>
       <c r="C162" s="5" t="n">
-        <v>21.63</v>
+        <v>63.85</v>
       </c>
       <c r="D162" s="5" t="n">
         <v>0.16</v>
@@ -5621,7 +5620,7 @@
         <v>44229.65625</v>
       </c>
       <c r="C163" s="5" t="n">
-        <v>21.8</v>
+        <v>64.02</v>
       </c>
       <c r="D163" s="5" t="n">
         <v>0.16</v>
@@ -5653,7 +5652,7 @@
         <v>44229.66666666666</v>
       </c>
       <c r="C164" s="5" t="n">
-        <v>22.05</v>
+        <v>64.27</v>
       </c>
       <c r="D164" s="5" t="n">
         <v>0.24</v>
@@ -5685,7 +5684,7 @@
         <v>44229.67708333334</v>
       </c>
       <c r="C165" s="5" t="n">
-        <v>22.35</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>0.29</v>
@@ -5717,7 +5716,7 @@
         <v>44229.6875</v>
       </c>
       <c r="C166" s="5" t="n">
-        <v>22.65</v>
+        <v>64.87</v>
       </c>
       <c r="D166" s="5" t="n">
         <v>0.29</v>
@@ -5749,7 +5748,7 @@
         <v>44229.69791666666</v>
       </c>
       <c r="C167" s="5" t="n">
-        <v>22.95</v>
+        <v>65.17</v>
       </c>
       <c r="D167" s="5" t="n">
         <v>0.29</v>
@@ -5781,7 +5780,7 @@
         <v>44229.70833333334</v>
       </c>
       <c r="C168" s="5" t="n">
-        <v>23.25</v>
+        <v>65.47</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>0.29</v>
@@ -5813,7 +5812,7 @@
         <v>44229.71875</v>
       </c>
       <c r="C169" s="5" t="n">
-        <v>23.55</v>
+        <v>65.77</v>
       </c>
       <c r="D169" s="5" t="n">
         <v>0.29</v>
@@ -5845,7 +5844,7 @@
         <v>44229.72916666666</v>
       </c>
       <c r="C170" s="5" t="n">
-        <v>23.85</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>0.29</v>
@@ -5877,7 +5876,7 @@
         <v>44229.73958333334</v>
       </c>
       <c r="C171" s="5" t="n">
-        <v>24.15</v>
+        <v>66.37</v>
       </c>
       <c r="D171" s="5" t="n">
         <v>0.29</v>
@@ -5909,7 +5908,7 @@
         <v>44229.75</v>
       </c>
       <c r="C172" s="5" t="n">
-        <v>24.45</v>
+        <v>66.67</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>0.29</v>
@@ -5941,7 +5940,7 @@
         <v>44229.76041666666</v>
       </c>
       <c r="C173" s="5" t="n">
-        <v>24.75</v>
+        <v>66.97</v>
       </c>
       <c r="D173" s="5" t="n">
         <v>0.29</v>
@@ -5973,7 +5972,7 @@
         <v>44229.77083333334</v>
       </c>
       <c r="C174" s="5" t="n">
-        <v>25.05</v>
+        <v>67.27</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>0.29</v>
@@ -6005,7 +6004,7 @@
         <v>44229.78125</v>
       </c>
       <c r="C175" s="5" t="n">
-        <v>25.35</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="D175" s="5" t="n">
         <v>0.29</v>
@@ -6037,7 +6036,7 @@
         <v>44229.79166666666</v>
       </c>
       <c r="C176" s="5" t="n">
-        <v>25.65</v>
+        <v>67.87</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>0.29</v>
@@ -6069,7 +6068,7 @@
         <v>44229.80208333334</v>
       </c>
       <c r="C177" s="5" t="n">
-        <v>25.95</v>
+        <v>68.17</v>
       </c>
       <c r="D177" s="5" t="n">
         <v>0.29</v>
@@ -6101,7 +6100,7 @@
         <v>44229.8125</v>
       </c>
       <c r="C178" s="5" t="n">
-        <v>26.25</v>
+        <v>68.47</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>0.29</v>
@@ -6133,7 +6132,7 @@
         <v>44229.82291666666</v>
       </c>
       <c r="C179" s="5" t="n">
-        <v>26.55</v>
+        <v>68.77</v>
       </c>
       <c r="D179" s="5" t="n">
         <v>0.29</v>
@@ -6165,7 +6164,7 @@
         <v>44229.83333333334</v>
       </c>
       <c r="C180" s="5" t="n">
-        <v>26.85</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>0.29</v>
@@ -6197,7 +6196,7 @@
         <v>44229.84375</v>
       </c>
       <c r="C181" s="5" t="n">
-        <v>27.15</v>
+        <v>69.37</v>
       </c>
       <c r="D181" s="5" t="n">
         <v>0.29</v>
@@ -6229,7 +6228,7 @@
         <v>44229.85416666666</v>
       </c>
       <c r="C182" s="5" t="n">
-        <v>27.45</v>
+        <v>69.67</v>
       </c>
       <c r="D182" s="5" t="n">
         <v>0.29</v>
@@ -6261,7 +6260,7 @@
         <v>44229.86458333334</v>
       </c>
       <c r="C183" s="5" t="n">
-        <v>27.75</v>
+        <v>69.97</v>
       </c>
       <c r="D183" s="5" t="n">
         <v>0.29</v>
@@ -6293,7 +6292,7 @@
         <v>44229.875</v>
       </c>
       <c r="C184" s="5" t="n">
-        <v>28.05</v>
+        <v>70.27</v>
       </c>
       <c r="D184" s="5" t="n">
         <v>0.29</v>
@@ -6325,7 +6324,7 @@
         <v>44229.88541666666</v>
       </c>
       <c r="C185" s="5" t="n">
-        <v>28.12</v>
+        <v>70.34</v>
       </c>
       <c r="D185" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6357,7 +6356,7 @@
         <v>44229.89583333334</v>
       </c>
       <c r="C186" s="5" t="n">
-        <v>28.2</v>
+        <v>70.42</v>
       </c>
       <c r="D186" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6389,7 +6388,7 @@
         <v>44229.90625</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>28.27</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="D187" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6421,7 +6420,7 @@
         <v>44229.91666666666</v>
       </c>
       <c r="C188" s="5" t="n">
-        <v>28.3</v>
+        <v>70.52</v>
       </c>
       <c r="D188" s="5" t="n">
         <v>0.02</v>
@@ -6453,7 +6452,7 @@
         <v>44229.92708333334</v>
       </c>
       <c r="C189" s="5" t="n">
-        <v>28.32</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="D189" s="5" t="n">
         <v>0.02</v>
@@ -6485,7 +6484,7 @@
         <v>44229.9375</v>
       </c>
       <c r="C190" s="5" t="n">
-        <v>28.35</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="D190" s="5" t="n">
         <v>0.02</v>
@@ -6517,7 +6516,7 @@
         <v>44229.94791666666</v>
       </c>
       <c r="C191" s="5" t="n">
-        <v>28.37</v>
+        <v>70.59</v>
       </c>
       <c r="D191" s="5" t="n">
         <v>0.02</v>
@@ -6549,7 +6548,7 @@
         <v>44229.95833333334</v>
       </c>
       <c r="C192" s="5" t="n">
-        <v>28.4</v>
+        <v>70.62</v>
       </c>
       <c r="D192" s="5" t="n">
         <v>0.02</v>
@@ -6581,7 +6580,7 @@
         <v>44229.96875</v>
       </c>
       <c r="C193" s="5" t="n">
-        <v>28.42</v>
+        <v>70.64</v>
       </c>
       <c r="D193" s="5" t="n">
         <v>0.02</v>
@@ -6613,7 +6612,7 @@
         <v>44229.97916666666</v>
       </c>
       <c r="C194" s="5" t="n">
-        <v>28.45</v>
+        <v>70.67</v>
       </c>
       <c r="D194" s="5" t="n">
         <v>0.02</v>
@@ -6645,7 +6644,7 @@
         <v>44229.98958333334</v>
       </c>
       <c r="C195" s="5" t="n">
-        <v>28.47</v>
+        <v>70.69</v>
       </c>
       <c r="D195" s="5" t="n">
         <v>0.02</v>
@@ -6677,7 +6676,7 @@
         <v>44230</v>
       </c>
       <c r="C196" s="5" t="n">
-        <v>28.5</v>
+        <v>70.72</v>
       </c>
       <c r="D196" s="5" t="n">
         <v>0.02</v>
@@ -6709,7 +6708,7 @@
         <v>44230.01041666666</v>
       </c>
       <c r="C197" s="5" t="n">
-        <v>28.52</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="D197" s="5" t="n">
         <v>0.02</v>
@@ -6741,7 +6740,7 @@
         <v>44230.02083333334</v>
       </c>
       <c r="C198" s="5" t="n">
-        <v>28.55</v>
+        <v>70.77</v>
       </c>
       <c r="D198" s="5" t="n">
         <v>0.02</v>
@@ -6773,7 +6772,7 @@
         <v>44230.03125</v>
       </c>
       <c r="C199" s="5" t="n">
-        <v>28.57</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="D199" s="5" t="n">
         <v>0.02</v>
@@ -6805,7 +6804,7 @@
         <v>44230.04166666666</v>
       </c>
       <c r="C200" s="5" t="n">
-        <v>28.6</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="D200" s="5" t="n">
         <v>0.02</v>
@@ -6837,7 +6836,7 @@
         <v>44230.05208333334</v>
       </c>
       <c r="C201" s="5" t="n">
-        <v>28.62</v>
+        <v>70.84</v>
       </c>
       <c r="D201" s="5" t="n">
         <v>0.02</v>
@@ -6869,7 +6868,7 @@
         <v>44230.0625</v>
       </c>
       <c r="C202" s="5" t="n">
-        <v>28.65</v>
+        <v>70.87</v>
       </c>
       <c r="D202" s="5" t="n">
         <v>0.02</v>
@@ -6901,7 +6900,7 @@
         <v>44230.07291666666</v>
       </c>
       <c r="C203" s="5" t="n">
-        <v>28.67</v>
+        <v>70.89</v>
       </c>
       <c r="D203" s="5" t="n">
         <v>0.02</v>
@@ -6933,7 +6932,7 @@
         <v>44230.08333333334</v>
       </c>
       <c r="C204" s="5" t="n">
-        <v>28.7</v>
+        <v>70.92</v>
       </c>
       <c r="D204" s="5" t="n">
         <v>0.02</v>
@@ -6965,7 +6964,7 @@
         <v>44230.09375</v>
       </c>
       <c r="C205" s="5" t="n">
-        <v>28.72</v>
+        <v>70.94</v>
       </c>
       <c r="D205" s="5" t="n">
         <v>0.02</v>
@@ -6997,7 +6996,7 @@
         <v>44230.10416666666</v>
       </c>
       <c r="C206" s="5" t="n">
-        <v>28.75</v>
+        <v>70.97</v>
       </c>
       <c r="D206" s="5" t="n">
         <v>0.02</v>
@@ -7029,7 +7028,7 @@
         <v>44230.11458333334</v>
       </c>
       <c r="C207" s="5" t="n">
-        <v>28.77</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="D207" s="5" t="n">
         <v>0.02</v>
@@ -7061,7 +7060,7 @@
         <v>44230.125</v>
       </c>
       <c r="C208" s="5" t="n">
-        <v>28.8</v>
+        <v>71.02</v>
       </c>
       <c r="D208" s="5" t="n">
         <v>0.02</v>
@@ -7093,7 +7092,7 @@
         <v>44230.13541666666</v>
       </c>
       <c r="C209" s="5" t="n">
-        <v>28.82</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="D209" s="5" t="n">
         <v>0.02</v>
@@ -7125,7 +7124,7 @@
         <v>44230.14583333334</v>
       </c>
       <c r="C210" s="5" t="n">
-        <v>28.85</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>0.02</v>
@@ -7157,7 +7156,7 @@
         <v>44230.15625</v>
       </c>
       <c r="C211" s="5" t="n">
-        <v>28.87</v>
+        <v>71.09</v>
       </c>
       <c r="D211" s="5" t="n">
         <v>0.02</v>
@@ -7189,7 +7188,7 @@
         <v>44230.16666666666</v>
       </c>
       <c r="C212" s="5" t="n">
-        <v>28.9</v>
+        <v>71.12</v>
       </c>
       <c r="D212" s="5" t="n">
         <v>0.02</v>
@@ -7221,7 +7220,7 @@
         <v>44230.17708333334</v>
       </c>
       <c r="C213" s="5" t="n">
-        <v>28.92</v>
+        <v>71.14</v>
       </c>
       <c r="D213" s="5" t="n">
         <v>0.02</v>
@@ -7253,7 +7252,7 @@
         <v>44230.1875</v>
       </c>
       <c r="C214" s="5" t="n">
-        <v>28.95</v>
+        <v>71.17</v>
       </c>
       <c r="D214" s="5" t="n">
         <v>0.02</v>
@@ -7285,7 +7284,7 @@
         <v>44230.19791666666</v>
       </c>
       <c r="C215" s="5" t="n">
-        <v>28.97</v>
+        <v>71.19</v>
       </c>
       <c r="D215" s="5" t="n">
         <v>0.02</v>
@@ -7317,7 +7316,7 @@
         <v>44230.20833333334</v>
       </c>
       <c r="C216" s="5" t="n">
-        <v>29</v>
+        <v>71.22</v>
       </c>
       <c r="D216" s="5" t="n">
         <v>0.02</v>
@@ -7349,7 +7348,7 @@
         <v>44230.21875</v>
       </c>
       <c r="C217" s="5" t="n">
-        <v>29.02</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="D217" s="5" t="n">
         <v>0.02</v>
@@ -7381,7 +7380,7 @@
         <v>44230.22916666666</v>
       </c>
       <c r="C218" s="5" t="n">
-        <v>29.05</v>
+        <v>71.27</v>
       </c>
       <c r="D218" s="5" t="n">
         <v>0.02</v>
@@ -7413,7 +7412,7 @@
         <v>44230.23958333334</v>
       </c>
       <c r="C219" s="5" t="n">
-        <v>29.07</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="D219" s="5" t="n">
         <v>0.02</v>
@@ -7445,7 +7444,7 @@
         <v>44230.25</v>
       </c>
       <c r="C220" s="5" t="n">
-        <v>29.15</v>
+        <v>71.37</v>
       </c>
       <c r="D220" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7477,7 +7476,7 @@
         <v>44230.26041666666</v>
       </c>
       <c r="C221" s="5" t="n">
-        <v>29.22</v>
+        <v>71.44</v>
       </c>
       <c r="D221" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7509,7 +7508,7 @@
         <v>44230.27083333334</v>
       </c>
       <c r="C222" s="5" t="n">
-        <v>29.3</v>
+        <v>71.52</v>
       </c>
       <c r="D222" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7541,7 +7540,7 @@
         <v>44230.28125</v>
       </c>
       <c r="C223" s="5" t="n">
-        <v>29.37</v>
+        <v>71.59</v>
       </c>
       <c r="D223" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7573,7 +7572,7 @@
         <v>44230.29166666666</v>
       </c>
       <c r="C224" s="5" t="n">
-        <v>29.45</v>
+        <v>71.67</v>
       </c>
       <c r="D224" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7605,7 +7604,7 @@
         <v>44230.30208333334</v>
       </c>
       <c r="C225" s="5" t="n">
-        <v>29.6</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="D225" s="5" t="n">
         <v>0.14</v>
@@ -7637,7 +7636,7 @@
         <v>44230.3125</v>
       </c>
       <c r="C226" s="5" t="n">
-        <v>29.75</v>
+        <v>71.97</v>
       </c>
       <c r="D226" s="5" t="n">
         <v>0.14</v>
@@ -7669,7 +7668,7 @@
         <v>44230.32291666666</v>
       </c>
       <c r="C227" s="5" t="n">
-        <v>29.9</v>
+        <v>72.12</v>
       </c>
       <c r="D227" s="5" t="n">
         <v>0.14</v>
@@ -7701,7 +7700,7 @@
         <v>44230.33333333334</v>
       </c>
       <c r="C228" s="5" t="n">
-        <v>30.05</v>
+        <v>72.27</v>
       </c>
       <c r="D228" s="5" t="n">
         <v>0.14</v>
@@ -7733,7 +7732,7 @@
         <v>44230.34375</v>
       </c>
       <c r="C229" s="5" t="n">
-        <v>30.24</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="D229" s="5" t="n">
         <v>0.18</v>
@@ -7765,7 +7764,7 @@
         <v>44230.35416666666</v>
       </c>
       <c r="C230" s="5" t="n">
-        <v>30.54</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D230" s="5" t="n">
         <v>0.29</v>
@@ -7797,7 +7796,7 @@
         <v>44230.36458333334</v>
       </c>
       <c r="C231" s="5" t="n">
-        <v>30.84</v>
+        <v>73.06</v>
       </c>
       <c r="D231" s="5" t="n">
         <v>0.29</v>
@@ -7829,7 +7828,7 @@
         <v>44230.375</v>
       </c>
       <c r="C232" s="5" t="n">
-        <v>31.14</v>
+        <v>73.36</v>
       </c>
       <c r="D232" s="5" t="n">
         <v>0.29</v>
@@ -7861,7 +7860,7 @@
         <v>44230.38541666666</v>
       </c>
       <c r="C233" s="5" t="n">
-        <v>31.4</v>
+        <v>73.62</v>
       </c>
       <c r="D233" s="5" t="n">
         <v>0.26</v>
@@ -7893,7 +7892,7 @@
         <v>44230.39583333334</v>
       </c>
       <c r="C234" s="5" t="n">
-        <v>31.66</v>
+        <v>73.88</v>
       </c>
       <c r="D234" s="5" t="n">
         <v>0.26</v>
@@ -7925,7 +7924,7 @@
         <v>44230.40625</v>
       </c>
       <c r="C235" s="5" t="n">
-        <v>31.93</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="D235" s="5" t="n">
         <v>0.26</v>
@@ -7957,7 +7956,7 @@
         <v>44230.41666666666</v>
       </c>
       <c r="C236" s="5" t="n">
-        <v>32.19</v>
+        <v>74.41</v>
       </c>
       <c r="D236" s="5" t="n">
         <v>0.26</v>
@@ -7989,7 +7988,7 @@
         <v>44230.42708333334</v>
       </c>
       <c r="C237" s="5" t="n">
-        <v>32.38</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D237" s="5" t="n">
         <v>0.18</v>
@@ -8021,7 +8020,7 @@
         <v>44230.4375</v>
       </c>
       <c r="C238" s="5" t="n">
-        <v>32.57</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="D238" s="5" t="n">
         <v>0.18</v>
@@ -8052,8 +8051,12 @@
       <c r="B239" s="4" t="n">
         <v>44230.44791666666</v>
       </c>
-      <c r="C239" s="6" t="n"/>
-      <c r="D239" s="6" t="n"/>
+      <c r="C239" s="5" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="D239" s="5" t="n">
+        <v>0.18</v>
+      </c>
       <c r="E239" s="6" t="n">
         <v>0</v>
       </c>
@@ -8073,6 +8076,1670 @@
         <v>0</v>
       </c>
       <c r="K239" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="4" t="n">
+        <v>44230.45833333334</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>75.17</v>
+      </c>
+      <c r="D240" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="4" t="n">
+        <v>44230.46875</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="D241" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="4" t="n">
+        <v>44230.47916666666</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>75.61</v>
+      </c>
+      <c r="D242" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="4" t="n">
+        <v>44230.48958333334</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>75.84999999999999</v>
+      </c>
+      <c r="D243" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="4" t="n">
+        <v>44230.5</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>76.02</v>
+      </c>
+      <c r="D244" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="4" t="n">
+        <v>44230.51041666666</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>76.16</v>
+      </c>
+      <c r="D245" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="4" t="n">
+        <v>44230.52083333334</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D246" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="4" t="n">
+        <v>44230.53125</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>76.44</v>
+      </c>
+      <c r="D247" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="4" t="n">
+        <v>44230.54166666666</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>76.58</v>
+      </c>
+      <c r="D248" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="4" t="n">
+        <v>44230.55208333334</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>76.77</v>
+      </c>
+      <c r="D249" s="5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="4" t="n">
+        <v>44230.5625</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="D250" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="4" t="n">
+        <v>44230.57291666666</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="D251" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="4" t="n">
+        <v>44230.58333333334</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>77.29000000000001</v>
+      </c>
+      <c r="D252" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="4" t="n">
+        <v>44230.59375</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>77.43000000000001</v>
+      </c>
+      <c r="D253" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="4" t="n">
+        <v>44230.60416666666</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="D254" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="4" t="n">
+        <v>44230.61458333334</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>77.70999999999999</v>
+      </c>
+      <c r="D255" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" s="4" t="n">
+        <v>44230.625</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>77.84999999999999</v>
+      </c>
+      <c r="D256" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="4" t="n">
+        <v>44230.63541666666</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>78.02</v>
+      </c>
+      <c r="D257" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="4" t="n">
+        <v>44230.64583333334</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>78.19</v>
+      </c>
+      <c r="D258" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="4" t="n">
+        <v>44230.65625</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="D259" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="4" t="n">
+        <v>44230.66666666666</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>78.61</v>
+      </c>
+      <c r="D260" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" s="4" t="n">
+        <v>44230.67708333334</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>78.91</v>
+      </c>
+      <c r="D261" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="4" t="n">
+        <v>44230.6875</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>79.20999999999999</v>
+      </c>
+      <c r="D262" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="4" t="n">
+        <v>44230.69791666666</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>79.51000000000001</v>
+      </c>
+      <c r="D263" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="4" t="n">
+        <v>44230.70833333334</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>79.81</v>
+      </c>
+      <c r="D264" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="4" t="n">
+        <v>44230.71875</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>80.11</v>
+      </c>
+      <c r="D265" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="4" t="n">
+        <v>44230.72916666666</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>80.41</v>
+      </c>
+      <c r="D266" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="4" t="n">
+        <v>44230.73958333334</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="D267" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="4" t="n">
+        <v>44230.75</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>81.01000000000001</v>
+      </c>
+      <c r="D268" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="4" t="n">
+        <v>44230.76041666666</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="D269" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="4" t="n">
+        <v>44230.77083333334</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="D270" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="4" t="n">
+        <v>44230.78125</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="D271" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="4" t="n">
+        <v>44230.79166666666</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="D272" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="4" t="n">
+        <v>44230.80208333334</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>82.51000000000001</v>
+      </c>
+      <c r="D273" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="4" t="n">
+        <v>44230.8125</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>82.81</v>
+      </c>
+      <c r="D274" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F274" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="4" t="n">
+        <v>44230.82291666666</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>83.11</v>
+      </c>
+      <c r="D275" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F275" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="4" t="n">
+        <v>44230.83333333334</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>83.41</v>
+      </c>
+      <c r="D276" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F276" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="4" t="n">
+        <v>44230.84375</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="D277" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="4" t="n">
+        <v>44230.85416666666</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D278" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F278" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" s="4" t="n">
+        <v>44230.86458333334</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="D279" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F279" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="4" t="n">
+        <v>44230.875</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D280" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F280" s="6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" s="6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="4" t="n">
+        <v>44230.88541666666</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>84.68000000000001</v>
+      </c>
+      <c r="D281" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="4" t="n">
+        <v>44230.89583333334</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>84.75</v>
+      </c>
+      <c r="D282" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F282" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="4" t="n">
+        <v>44230.90625</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <v>84.83</v>
+      </c>
+      <c r="D283" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F283" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="4" t="n">
+        <v>44230.91666666666</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="D284" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F284" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="4" t="n">
+        <v>44230.92708333334</v>
+      </c>
+      <c r="C285" s="5" t="n">
+        <v>84.88</v>
+      </c>
+      <c r="D285" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="4" t="n">
+        <v>44230.9375</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D286" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="4" t="n">
+        <v>44230.94791666666</v>
+      </c>
+      <c r="C287" s="5" t="n">
+        <v>84.93000000000001</v>
+      </c>
+      <c r="D287" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="4" t="n">
+        <v>44230.95833333334</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <v>84.95</v>
+      </c>
+      <c r="D288" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="4" t="n">
+        <v>44230.96875</v>
+      </c>
+      <c r="C289" s="5" t="n">
+        <v>84.98</v>
+      </c>
+      <c r="D289" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F289" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="4" t="n">
+        <v>44230.97916666666</v>
+      </c>
+      <c r="C290" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="D290" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" s="4" t="n">
+        <v>44230.98958333334</v>
+      </c>
+      <c r="C291" s="5" t="n">
+        <v>85.03</v>
+      </c>
+      <c r="D291" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8087,7 +9754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:M239"/>
+  <dimension ref="B3:M291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8176,7 +9843,7 @@
         <v>44228</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>42.84</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -8208,7 +9875,7 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02</v>
+        <v>42.87</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.02</v>
@@ -8240,7 +9907,7 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04</v>
+        <v>42.89</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.02</v>
@@ -8272,7 +9939,7 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>42.92</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02</v>
@@ -8304,7 +9971,7 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09</v>
+        <v>42.94</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0.02</v>
@@ -8336,7 +10003,7 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.12</v>
+        <v>42.97</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0.02</v>
@@ -8368,7 +10035,7 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.14</v>
+        <v>42.99</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02</v>
@@ -8400,7 +10067,7 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.17</v>
+        <v>43.02</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0.02</v>
@@ -8432,7 +10099,7 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.19</v>
+        <v>43.04</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0.02</v>
@@ -8464,7 +10131,7 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.22</v>
+        <v>43.07</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02</v>
@@ -8496,7 +10163,7 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.24</v>
+        <v>43.09</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0.02</v>
@@ -8528,7 +10195,7 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.27</v>
+        <v>43.12</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0.02</v>
@@ -8560,7 +10227,7 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.29</v>
+        <v>43.14</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.02</v>
@@ -8592,7 +10259,7 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.32</v>
+        <v>43.17</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0.02</v>
@@ -8624,7 +10291,7 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.34</v>
+        <v>43.19</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0.02</v>
@@ -8656,7 +10323,7 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.37</v>
+        <v>43.22</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.02</v>
@@ -8688,7 +10355,7 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.39</v>
+        <v>43.24</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0.02</v>
@@ -8720,7 +10387,7 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.42</v>
+        <v>43.27</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0.02</v>
@@ -8752,7 +10419,7 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.44</v>
+        <v>43.29</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.02</v>
@@ -8784,7 +10451,7 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.47</v>
+        <v>43.32</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0.02</v>
@@ -8816,7 +10483,7 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.49</v>
+        <v>43.34</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0.02</v>
@@ -8848,7 +10515,7 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.52</v>
+        <v>43.37</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.02</v>
@@ -8880,7 +10547,7 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.52</v>
+        <v>43.39</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0.02</v>
@@ -8912,7 +10579,7 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.52</v>
+        <v>43.42</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0.02</v>
@@ -8944,7 +10611,7 @@
         <v>44228.25</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.64</v>
+        <v>43.49</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -8976,7 +10643,7 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.64</v>
+        <v>43.57</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -9008,7 +10675,7 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.79</v>
+        <v>43.64</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -9040,7 +10707,7 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.87</v>
+        <v>43.72</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -9072,7 +10739,7 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.9399999999999999</v>
+        <v>43.79</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -9104,7 +10771,7 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>1.09</v>
+        <v>43.94</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0.14</v>
@@ -9136,7 +10803,7 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>1.24</v>
+        <v>44.09</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0.14</v>
@@ -9168,7 +10835,7 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.39</v>
+        <v>44.24</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0.14</v>
@@ -9200,7 +10867,7 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.54</v>
+        <v>44.39</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0.14</v>
@@ -9232,7 +10899,7 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>1.73</v>
+        <v>44.58</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0.18</v>
@@ -9264,7 +10931,7 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>2.03</v>
+        <v>44.88</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0.29</v>
@@ -9296,7 +10963,7 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>2.33</v>
+        <v>45.18</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>0.29</v>
@@ -9328,7 +10995,7 @@
         <v>44228.375</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>2.63</v>
+        <v>45.48</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0.29</v>
@@ -9360,10 +11027,10 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.89</v>
+        <v>45.75</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>1</v>
@@ -9392,7 +11059,7 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.16</v>
+        <v>46.01</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>0.26</v>
@@ -9424,7 +11091,7 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>3.42</v>
+        <v>46.27</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>0.26</v>
@@ -9456,7 +11123,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>3.68</v>
+        <v>46.54</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>0.26</v>
@@ -9488,7 +11155,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>3.87</v>
+        <v>46.73</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>0.18</v>
@@ -9520,7 +11187,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>4.06</v>
+        <v>46.92</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>0.18</v>
@@ -9552,7 +11219,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>4.25</v>
+        <v>47.11</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>0.18</v>
@@ -9584,7 +11251,7 @@
         <v>44228.45833333334</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.44</v>
+        <v>47.3</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>0.18</v>
@@ -9616,7 +11283,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>4.63</v>
+        <v>47.49</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>0.18</v>
@@ -9648,10 +11315,10 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>4.82</v>
+        <v>47.73</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>1</v>
@@ -9680,10 +11347,10 @@
         <v>44228.48958333334</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>5.01</v>
+        <v>47.98</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>1</v>
@@ -9712,10 +11379,10 @@
         <v>44228.5</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>5.15</v>
+        <v>48.15</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>1</v>
@@ -9744,7 +11411,7 @@
         <v>44228.51041666666</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>5.29</v>
+        <v>48.29</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0.13</v>
@@ -9776,7 +11443,7 @@
         <v>44228.52083333334</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.43</v>
+        <v>48.43</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>0.13</v>
@@ -9808,7 +11475,7 @@
         <v>44228.53125</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>5.57</v>
+        <v>48.57</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>0.13</v>
@@ -9840,7 +11507,7 @@
         <v>44228.54166666666</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>5.71</v>
+        <v>48.71</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>0.13</v>
@@ -9872,10 +11539,10 @@
         <v>44228.55208333334</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>5.9</v>
+        <v>48.9</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>1</v>
@@ -9904,7 +11571,7 @@
         <v>44228.5625</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>6.09</v>
+        <v>49.09</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>0.18</v>
@@ -9936,7 +11603,7 @@
         <v>44228.57291666666</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>6.28</v>
+        <v>49.28</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>0.18</v>
@@ -9968,10 +11635,10 @@
         <v>44228.58333333334</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>6.47</v>
+        <v>49.42</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>1</v>
@@ -10000,7 +11667,7 @@
         <v>44228.59375</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>6.61</v>
+        <v>49.56</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>0.13</v>
@@ -10032,7 +11699,7 @@
         <v>44228.60416666666</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>6.75</v>
+        <v>49.7</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>0.13</v>
@@ -10064,7 +11731,7 @@
         <v>44228.61458333334</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>6.89</v>
+        <v>49.84</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>0.13</v>
@@ -10096,7 +11763,7 @@
         <v>44228.625</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>7.03</v>
+        <v>49.98</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>0.13</v>
@@ -10128,7 +11795,7 @@
         <v>44228.63541666666</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>7.2</v>
+        <v>50.15</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>0.16</v>
@@ -10160,7 +11827,7 @@
         <v>44228.64583333334</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>7.37</v>
+        <v>50.32</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>0.16</v>
@@ -10192,7 +11859,7 @@
         <v>44228.65625</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>7.54</v>
+        <v>50.49</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>0.16</v>
@@ -10224,7 +11891,7 @@
         <v>44228.66666666666</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>7.78</v>
+        <v>50.73</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>0.24</v>
@@ -10256,7 +11923,7 @@
         <v>44228.67708333334</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>8.08</v>
+        <v>51.03</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>0.29</v>
@@ -10288,7 +11955,7 @@
         <v>44228.6875</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>8.380000000000001</v>
+        <v>51.33</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>0.29</v>
@@ -10320,7 +11987,7 @@
         <v>44228.69791666666</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>8.68</v>
+        <v>51.63</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>0.29</v>
@@ -10352,7 +12019,7 @@
         <v>44228.70833333334</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>8.98</v>
+        <v>51.93</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>0.29</v>
@@ -10384,7 +12051,7 @@
         <v>44228.71875</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>9.279999999999999</v>
+        <v>52.23</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>0.29</v>
@@ -10416,7 +12083,7 @@
         <v>44228.72916666666</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>9.58</v>
+        <v>52.53</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>0.29</v>
@@ -10448,7 +12115,7 @@
         <v>44228.73958333334</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>9.880000000000001</v>
+        <v>52.83</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>0.29</v>
@@ -10480,7 +12147,7 @@
         <v>44228.75</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>10.18</v>
+        <v>53.13</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>0.29</v>
@@ -10512,7 +12179,7 @@
         <v>44228.76041666666</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>10.48</v>
+        <v>53.43</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>0.29</v>
@@ -10544,7 +12211,7 @@
         <v>44228.77083333334</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>10.78</v>
+        <v>53.73</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>0.29</v>
@@ -10576,7 +12243,7 @@
         <v>44228.78125</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>11.08</v>
+        <v>53.73</v>
       </c>
       <c r="D79" s="5" t="n">
         <v>0.29</v>
@@ -10608,7 +12275,7 @@
         <v>44228.79166666666</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>11.38</v>
+        <v>53.73</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>0.29</v>
@@ -10640,7 +12307,7 @@
         <v>44228.80208333334</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>11.68</v>
+        <v>53.73</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>0.29</v>
@@ -10672,7 +12339,7 @@
         <v>44228.8125</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>11.98</v>
+        <v>53.73</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>0.29</v>
@@ -10704,7 +12371,7 @@
         <v>44228.82291666666</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>12.28</v>
+        <v>53.73</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>0.29</v>
@@ -10736,10 +12403,10 @@
         <v>44228.83333333334</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>12.58</v>
+        <v>54.43</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>1</v>
@@ -10768,7 +12435,7 @@
         <v>44228.84375</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>12.88</v>
+        <v>54.73</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>0.29</v>
@@ -10800,7 +12467,7 @@
         <v>44228.85416666666</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>13.18</v>
+        <v>54.73</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>0.29</v>
@@ -10832,7 +12499,7 @@
         <v>44228.86458333334</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>13.48</v>
+        <v>55.03</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>0.29</v>
@@ -10864,7 +12531,7 @@
         <v>44228.875</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>13.78</v>
+        <v>55.63</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>0.29</v>
@@ -10896,10 +12563,10 @@
         <v>44228.88541666666</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>13.86</v>
+        <v>55.93</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="E89" s="6" t="n">
         <v>0.25</v>
@@ -10928,7 +12595,7 @@
         <v>44228.89583333334</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>13.93</v>
+        <v>56.01</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -10960,7 +12627,7 @@
         <v>44228.90625</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>14.01</v>
+        <v>56.01</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -10992,10 +12659,10 @@
         <v>44228.91666666666</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>14.03</v>
+        <v>56.08</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E92" s="6" t="n">
         <v>0.25</v>
@@ -11024,7 +12691,7 @@
         <v>44228.92708333334</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>14.06</v>
+        <v>56.18</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>0.02</v>
@@ -11056,7 +12723,7 @@
         <v>44228.9375</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>14.08</v>
+        <v>56.21</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>0.02</v>
@@ -11088,7 +12755,7 @@
         <v>44228.94791666666</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>14.11</v>
+        <v>56.23</v>
       </c>
       <c r="D95" s="5" t="n">
         <v>0.02</v>
@@ -11120,7 +12787,7 @@
         <v>44228.95833333334</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>14.13</v>
+        <v>56.23</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>0.02</v>
@@ -11152,7 +12819,7 @@
         <v>44228.96875</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>14.16</v>
+        <v>56.26</v>
       </c>
       <c r="D97" s="5" t="n">
         <v>0.02</v>
@@ -11184,7 +12851,7 @@
         <v>44228.97916666666</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>14.18</v>
+        <v>56.26</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>0.02</v>
@@ -11216,7 +12883,7 @@
         <v>44228.98958333334</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>14.21</v>
+        <v>56.31</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>0.02</v>
@@ -11248,7 +12915,7 @@
         <v>44229</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>14.23</v>
+        <v>56.31</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>0.02</v>
@@ -11280,7 +12947,7 @@
         <v>44229.01041666666</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>14.26</v>
+        <v>56.31</v>
       </c>
       <c r="D101" s="5" t="n">
         <v>0.02</v>
@@ -11312,7 +12979,7 @@
         <v>44229.02083333334</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>14.28</v>
+        <v>56.38</v>
       </c>
       <c r="D102" s="5" t="n">
         <v>0.02</v>
@@ -11344,7 +13011,7 @@
         <v>44229.03125</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>14.31</v>
+        <v>56.46</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>0.02</v>
@@ -11376,7 +13043,7 @@
         <v>44229.04166666666</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>14.33</v>
+        <v>56.48</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>0.02</v>
@@ -11408,7 +13075,7 @@
         <v>44229.05208333334</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>14.36</v>
+        <v>56.51</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>0.02</v>
@@ -11440,7 +13107,7 @@
         <v>44229.0625</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>14.38</v>
+        <v>56.53</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>0.02</v>
@@ -11472,7 +13139,7 @@
         <v>44229.07291666666</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>14.41</v>
+        <v>56.56</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>0.02</v>
@@ -11504,7 +13171,7 @@
         <v>44229.08333333334</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>14.43</v>
+        <v>56.58</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>0.02</v>
@@ -11536,7 +13203,7 @@
         <v>44229.09375</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>14.46</v>
+        <v>56.61</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>0.02</v>
@@ -11568,7 +13235,7 @@
         <v>44229.10416666666</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>14.48</v>
+        <v>56.63</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>0.02</v>
@@ -11600,7 +13267,7 @@
         <v>44229.11458333334</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>14.51</v>
+        <v>56.66</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>0.02</v>
@@ -11632,7 +13299,7 @@
         <v>44229.125</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>14.53</v>
+        <v>56.68</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>0.02</v>
@@ -11664,7 +13331,7 @@
         <v>44229.13541666666</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>14.56</v>
+        <v>56.71</v>
       </c>
       <c r="D113" s="5" t="n">
         <v>0.02</v>
@@ -11696,7 +13363,7 @@
         <v>44229.14583333334</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>14.58</v>
+        <v>56.73</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>0.02</v>
@@ -11728,7 +13395,7 @@
         <v>44229.15625</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>14.61</v>
+        <v>56.76</v>
       </c>
       <c r="D115" s="5" t="n">
         <v>0.02</v>
@@ -11760,7 +13427,7 @@
         <v>44229.16666666666</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>14.63</v>
+        <v>56.78</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>0.02</v>
@@ -11792,7 +13459,7 @@
         <v>44229.17708333334</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>14.66</v>
+        <v>56.81</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>0.02</v>
@@ -11824,7 +13491,7 @@
         <v>44229.1875</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>14.68</v>
+        <v>56.83</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>0.02</v>
@@ -11856,7 +13523,7 @@
         <v>44229.19791666666</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>14.71</v>
+        <v>56.86</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>0.02</v>
@@ -11888,7 +13555,7 @@
         <v>44229.20833333334</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>14.73</v>
+        <v>56.88</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>0.02</v>
@@ -11920,7 +13587,7 @@
         <v>44229.21875</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>14.76</v>
+        <v>56.91</v>
       </c>
       <c r="D121" s="5" t="n">
         <v>0.02</v>
@@ -11952,7 +13619,7 @@
         <v>44229.22916666666</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>14.78</v>
+        <v>56.93</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>0.02</v>
@@ -11984,7 +13651,7 @@
         <v>44229.23958333334</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>14.81</v>
+        <v>56.96</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>0.02</v>
@@ -12016,7 +13683,7 @@
         <v>44229.25</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>14.88</v>
+        <v>57.03</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12048,7 +13715,7 @@
         <v>44229.26041666666</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>14.96</v>
+        <v>57.11</v>
       </c>
       <c r="D125" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12080,7 +13747,7 @@
         <v>44229.27083333334</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>15.03</v>
+        <v>57.18</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12112,7 +13779,7 @@
         <v>44229.28125</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>15.11</v>
+        <v>57.26</v>
       </c>
       <c r="D127" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12144,7 +13811,7 @@
         <v>44229.29166666666</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>15.18</v>
+        <v>57.33</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12176,7 +13843,7 @@
         <v>44229.30208333334</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>15.33</v>
+        <v>57.48</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>0.14</v>
@@ -12208,7 +13875,7 @@
         <v>44229.3125</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>15.48</v>
+        <v>57.63</v>
       </c>
       <c r="D130" s="5" t="n">
         <v>0.14</v>
@@ -12240,7 +13907,7 @@
         <v>44229.32291666666</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>15.63</v>
+        <v>57.78</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>0.14</v>
@@ -12272,7 +13939,7 @@
         <v>44229.33333333334</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>15.78</v>
+        <v>57.93</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>0.14</v>
@@ -12304,7 +13971,7 @@
         <v>44229.34375</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>15.97</v>
+        <v>58.12</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>0.18</v>
@@ -12336,7 +14003,7 @@
         <v>44229.35416666666</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>16.27</v>
+        <v>58.42</v>
       </c>
       <c r="D134" s="5" t="n">
         <v>0.29</v>
@@ -12368,7 +14035,7 @@
         <v>44229.36458333334</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>16.57</v>
+        <v>58.72</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>0.29</v>
@@ -12400,7 +14067,7 @@
         <v>44229.375</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>16.87</v>
+        <v>59.02</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>0.29</v>
@@ -12432,7 +14099,7 @@
         <v>44229.38541666666</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>17.13</v>
+        <v>59.28</v>
       </c>
       <c r="D137" s="5" t="n">
         <v>0.26</v>
@@ -12464,7 +14131,7 @@
         <v>44229.39583333334</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>17.4</v>
+        <v>59.55</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>0.26</v>
@@ -12496,7 +14163,7 @@
         <v>44229.40625</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>17.66</v>
+        <v>59.81</v>
       </c>
       <c r="D139" s="5" t="n">
         <v>0.26</v>
@@ -12528,7 +14195,7 @@
         <v>44229.41666666666</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>17.92</v>
+        <v>60.07</v>
       </c>
       <c r="D140" s="5" t="n">
         <v>0.26</v>
@@ -12560,7 +14227,7 @@
         <v>44229.42708333334</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>18.11</v>
+        <v>60.26</v>
       </c>
       <c r="D141" s="5" t="n">
         <v>0.18</v>
@@ -12592,7 +14259,7 @@
         <v>44229.4375</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>18.3</v>
+        <v>60.45</v>
       </c>
       <c r="D142" s="5" t="n">
         <v>0.18</v>
@@ -12624,7 +14291,7 @@
         <v>44229.44791666666</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>18.49</v>
+        <v>60.64</v>
       </c>
       <c r="D143" s="5" t="n">
         <v>0.18</v>
@@ -12656,7 +14323,7 @@
         <v>44229.45833333334</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>18.68</v>
+        <v>60.83</v>
       </c>
       <c r="D144" s="5" t="n">
         <v>0.18</v>
@@ -12688,7 +14355,7 @@
         <v>44229.46875</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>18.87</v>
+        <v>61.02</v>
       </c>
       <c r="D145" s="5" t="n">
         <v>0.18</v>
@@ -12720,10 +14387,10 @@
         <v>44229.47916666666</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>19.06</v>
+        <v>61.27</v>
       </c>
       <c r="D146" s="5" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>1</v>
@@ -12752,10 +14419,10 @@
         <v>44229.48958333334</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>19.25</v>
+        <v>61.52</v>
       </c>
       <c r="D147" s="5" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>1</v>
@@ -12784,10 +14451,10 @@
         <v>44229.5</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>19.39</v>
+        <v>61.69</v>
       </c>
       <c r="D148" s="5" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>1</v>
@@ -12816,7 +14483,7 @@
         <v>44229.51041666666</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>19.53</v>
+        <v>61.83</v>
       </c>
       <c r="D149" s="5" t="n">
         <v>0.13</v>
@@ -12848,7 +14515,7 @@
         <v>44229.52083333334</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>19.67</v>
+        <v>61.97</v>
       </c>
       <c r="D150" s="5" t="n">
         <v>0.13</v>
@@ -12880,7 +14547,7 @@
         <v>44229.53125</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>19.81</v>
+        <v>62.11</v>
       </c>
       <c r="D151" s="5" t="n">
         <v>0.13</v>
@@ -12912,7 +14579,7 @@
         <v>44229.54166666666</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>19.95</v>
+        <v>62.25</v>
       </c>
       <c r="D152" s="5" t="n">
         <v>0.13</v>
@@ -12944,10 +14611,10 @@
         <v>44229.55208333334</v>
       </c>
       <c r="C153" s="5" t="n">
-        <v>20.14</v>
+        <v>62.44</v>
       </c>
       <c r="D153" s="5" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>1</v>
@@ -12976,7 +14643,7 @@
         <v>44229.5625</v>
       </c>
       <c r="C154" s="5" t="n">
-        <v>20.33</v>
+        <v>62.62</v>
       </c>
       <c r="D154" s="5" t="n">
         <v>0.18</v>
@@ -13008,7 +14675,7 @@
         <v>44229.57291666666</v>
       </c>
       <c r="C155" s="5" t="n">
-        <v>20.52</v>
+        <v>62.81</v>
       </c>
       <c r="D155" s="5" t="n">
         <v>0.18</v>
@@ -13040,10 +14707,10 @@
         <v>44229.58333333334</v>
       </c>
       <c r="C156" s="5" t="n">
-        <v>20.71</v>
+        <v>62.95</v>
       </c>
       <c r="D156" s="5" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="E156" s="6" t="n">
         <v>1</v>
@@ -13072,10 +14739,10 @@
         <v>44229.59375</v>
       </c>
       <c r="C157" s="5" t="n">
-        <v>20.87</v>
+        <v>63.09</v>
       </c>
       <c r="D157" s="5" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>1</v>
@@ -13104,7 +14771,7 @@
         <v>44229.60416666666</v>
       </c>
       <c r="C158" s="5" t="n">
-        <v>21.01</v>
+        <v>63.23</v>
       </c>
       <c r="D158" s="5" t="n">
         <v>0.13</v>
@@ -13136,7 +14803,7 @@
         <v>44229.61458333334</v>
       </c>
       <c r="C159" s="5" t="n">
-        <v>21.15</v>
+        <v>63.37</v>
       </c>
       <c r="D159" s="5" t="n">
         <v>0.13</v>
@@ -13168,7 +14835,7 @@
         <v>44229.625</v>
       </c>
       <c r="C160" s="5" t="n">
-        <v>21.29</v>
+        <v>63.51</v>
       </c>
       <c r="D160" s="5" t="n">
         <v>0.13</v>
@@ -13200,7 +14867,7 @@
         <v>44229.63541666666</v>
       </c>
       <c r="C161" s="5" t="n">
-        <v>21.46</v>
+        <v>63.68</v>
       </c>
       <c r="D161" s="5" t="n">
         <v>0.16</v>
@@ -13232,7 +14899,7 @@
         <v>44229.64583333334</v>
       </c>
       <c r="C162" s="5" t="n">
-        <v>21.63</v>
+        <v>63.85</v>
       </c>
       <c r="D162" s="5" t="n">
         <v>0.16</v>
@@ -13264,7 +14931,7 @@
         <v>44229.65625</v>
       </c>
       <c r="C163" s="5" t="n">
-        <v>21.8</v>
+        <v>64.02</v>
       </c>
       <c r="D163" s="5" t="n">
         <v>0.16</v>
@@ -13296,7 +14963,7 @@
         <v>44229.66666666666</v>
       </c>
       <c r="C164" s="5" t="n">
-        <v>22.05</v>
+        <v>64.27</v>
       </c>
       <c r="D164" s="5" t="n">
         <v>0.24</v>
@@ -13328,7 +14995,7 @@
         <v>44229.67708333334</v>
       </c>
       <c r="C165" s="5" t="n">
-        <v>22.35</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>0.29</v>
@@ -13360,7 +15027,7 @@
         <v>44229.6875</v>
       </c>
       <c r="C166" s="5" t="n">
-        <v>22.65</v>
+        <v>64.87</v>
       </c>
       <c r="D166" s="5" t="n">
         <v>0.29</v>
@@ -13392,7 +15059,7 @@
         <v>44229.69791666666</v>
       </c>
       <c r="C167" s="5" t="n">
-        <v>22.95</v>
+        <v>65.17</v>
       </c>
       <c r="D167" s="5" t="n">
         <v>0.29</v>
@@ -13424,7 +15091,7 @@
         <v>44229.70833333334</v>
       </c>
       <c r="C168" s="5" t="n">
-        <v>23.25</v>
+        <v>65.47</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>0.29</v>
@@ -13456,7 +15123,7 @@
         <v>44229.71875</v>
       </c>
       <c r="C169" s="5" t="n">
-        <v>23.55</v>
+        <v>65.77</v>
       </c>
       <c r="D169" s="5" t="n">
         <v>0.29</v>
@@ -13488,7 +15155,7 @@
         <v>44229.72916666666</v>
       </c>
       <c r="C170" s="5" t="n">
-        <v>23.85</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>0.29</v>
@@ -13520,7 +15187,7 @@
         <v>44229.73958333334</v>
       </c>
       <c r="C171" s="5" t="n">
-        <v>24.15</v>
+        <v>66.37</v>
       </c>
       <c r="D171" s="5" t="n">
         <v>0.29</v>
@@ -13552,7 +15219,7 @@
         <v>44229.75</v>
       </c>
       <c r="C172" s="5" t="n">
-        <v>24.45</v>
+        <v>66.67</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>0.29</v>
@@ -13584,7 +15251,7 @@
         <v>44229.76041666666</v>
       </c>
       <c r="C173" s="5" t="n">
-        <v>24.75</v>
+        <v>66.97</v>
       </c>
       <c r="D173" s="5" t="n">
         <v>0.29</v>
@@ -13616,7 +15283,7 @@
         <v>44229.77083333334</v>
       </c>
       <c r="C174" s="5" t="n">
-        <v>25.05</v>
+        <v>67.27</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>0.29</v>
@@ -13648,7 +15315,7 @@
         <v>44229.78125</v>
       </c>
       <c r="C175" s="5" t="n">
-        <v>25.35</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="D175" s="5" t="n">
         <v>0.29</v>
@@ -13680,7 +15347,7 @@
         <v>44229.79166666666</v>
       </c>
       <c r="C176" s="5" t="n">
-        <v>25.65</v>
+        <v>67.87</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>0.29</v>
@@ -13712,7 +15379,7 @@
         <v>44229.80208333334</v>
       </c>
       <c r="C177" s="5" t="n">
-        <v>25.95</v>
+        <v>68.17</v>
       </c>
       <c r="D177" s="5" t="n">
         <v>0.29</v>
@@ -13744,7 +15411,7 @@
         <v>44229.8125</v>
       </c>
       <c r="C178" s="5" t="n">
-        <v>26.25</v>
+        <v>68.47</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>0.29</v>
@@ -13776,7 +15443,7 @@
         <v>44229.82291666666</v>
       </c>
       <c r="C179" s="5" t="n">
-        <v>26.55</v>
+        <v>68.77</v>
       </c>
       <c r="D179" s="5" t="n">
         <v>0.29</v>
@@ -13808,7 +15475,7 @@
         <v>44229.83333333334</v>
       </c>
       <c r="C180" s="5" t="n">
-        <v>26.85</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>0.29</v>
@@ -13840,7 +15507,7 @@
         <v>44229.84375</v>
       </c>
       <c r="C181" s="5" t="n">
-        <v>27.15</v>
+        <v>69.37</v>
       </c>
       <c r="D181" s="5" t="n">
         <v>0.29</v>
@@ -13872,7 +15539,7 @@
         <v>44229.85416666666</v>
       </c>
       <c r="C182" s="5" t="n">
-        <v>27.45</v>
+        <v>69.67</v>
       </c>
       <c r="D182" s="5" t="n">
         <v>0.29</v>
@@ -13904,7 +15571,7 @@
         <v>44229.86458333334</v>
       </c>
       <c r="C183" s="5" t="n">
-        <v>27.75</v>
+        <v>69.97</v>
       </c>
       <c r="D183" s="5" t="n">
         <v>0.29</v>
@@ -13936,7 +15603,7 @@
         <v>44229.875</v>
       </c>
       <c r="C184" s="5" t="n">
-        <v>28.05</v>
+        <v>70.27</v>
       </c>
       <c r="D184" s="5" t="n">
         <v>0.29</v>
@@ -13968,7 +15635,7 @@
         <v>44229.88541666666</v>
       </c>
       <c r="C185" s="5" t="n">
-        <v>28.12</v>
+        <v>70.34</v>
       </c>
       <c r="D185" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -14000,7 +15667,7 @@
         <v>44229.89583333334</v>
       </c>
       <c r="C186" s="5" t="n">
-        <v>28.2</v>
+        <v>70.42</v>
       </c>
       <c r="D186" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -14032,7 +15699,7 @@
         <v>44229.90625</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>28.27</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="D187" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -14064,7 +15731,7 @@
         <v>44229.91666666666</v>
       </c>
       <c r="C188" s="5" t="n">
-        <v>28.3</v>
+        <v>70.52</v>
       </c>
       <c r="D188" s="5" t="n">
         <v>0.02</v>
@@ -14096,7 +15763,7 @@
         <v>44229.92708333334</v>
       </c>
       <c r="C189" s="5" t="n">
-        <v>28.32</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="D189" s="5" t="n">
         <v>0.02</v>
@@ -14128,7 +15795,7 @@
         <v>44229.9375</v>
       </c>
       <c r="C190" s="5" t="n">
-        <v>28.35</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="D190" s="5" t="n">
         <v>0.02</v>
@@ -14160,7 +15827,7 @@
         <v>44229.94791666666</v>
       </c>
       <c r="C191" s="5" t="n">
-        <v>28.37</v>
+        <v>70.59</v>
       </c>
       <c r="D191" s="5" t="n">
         <v>0.02</v>
@@ -14192,7 +15859,7 @@
         <v>44229.95833333334</v>
       </c>
       <c r="C192" s="5" t="n">
-        <v>28.4</v>
+        <v>70.62</v>
       </c>
       <c r="D192" s="5" t="n">
         <v>0.02</v>
@@ -14224,7 +15891,7 @@
         <v>44229.96875</v>
       </c>
       <c r="C193" s="5" t="n">
-        <v>28.42</v>
+        <v>70.64</v>
       </c>
       <c r="D193" s="5" t="n">
         <v>0.02</v>
@@ -14256,7 +15923,7 @@
         <v>44229.97916666666</v>
       </c>
       <c r="C194" s="5" t="n">
-        <v>28.45</v>
+        <v>70.67</v>
       </c>
       <c r="D194" s="5" t="n">
         <v>0.02</v>
@@ -14288,7 +15955,7 @@
         <v>44229.98958333334</v>
       </c>
       <c r="C195" s="5" t="n">
-        <v>28.47</v>
+        <v>70.69</v>
       </c>
       <c r="D195" s="5" t="n">
         <v>0.02</v>
@@ -14320,7 +15987,7 @@
         <v>44230</v>
       </c>
       <c r="C196" s="5" t="n">
-        <v>28.5</v>
+        <v>70.72</v>
       </c>
       <c r="D196" s="5" t="n">
         <v>0.02</v>
@@ -14352,7 +16019,7 @@
         <v>44230.01041666666</v>
       </c>
       <c r="C197" s="5" t="n">
-        <v>28.52</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="D197" s="5" t="n">
         <v>0.02</v>
@@ -14384,7 +16051,7 @@
         <v>44230.02083333334</v>
       </c>
       <c r="C198" s="5" t="n">
-        <v>28.55</v>
+        <v>70.77</v>
       </c>
       <c r="D198" s="5" t="n">
         <v>0.02</v>
@@ -14416,7 +16083,7 @@
         <v>44230.03125</v>
       </c>
       <c r="C199" s="5" t="n">
-        <v>28.57</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="D199" s="5" t="n">
         <v>0.02</v>
@@ -14448,7 +16115,7 @@
         <v>44230.04166666666</v>
       </c>
       <c r="C200" s="5" t="n">
-        <v>28.6</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="D200" s="5" t="n">
         <v>0.02</v>
@@ -14480,7 +16147,7 @@
         <v>44230.05208333334</v>
       </c>
       <c r="C201" s="5" t="n">
-        <v>28.62</v>
+        <v>70.84</v>
       </c>
       <c r="D201" s="5" t="n">
         <v>0.02</v>
@@ -14512,7 +16179,7 @@
         <v>44230.0625</v>
       </c>
       <c r="C202" s="5" t="n">
-        <v>28.65</v>
+        <v>70.87</v>
       </c>
       <c r="D202" s="5" t="n">
         <v>0.02</v>
@@ -14544,7 +16211,7 @@
         <v>44230.07291666666</v>
       </c>
       <c r="C203" s="5" t="n">
-        <v>28.67</v>
+        <v>70.89</v>
       </c>
       <c r="D203" s="5" t="n">
         <v>0.02</v>
@@ -14576,7 +16243,7 @@
         <v>44230.08333333334</v>
       </c>
       <c r="C204" s="5" t="n">
-        <v>28.7</v>
+        <v>70.92</v>
       </c>
       <c r="D204" s="5" t="n">
         <v>0.02</v>
@@ -14608,7 +16275,7 @@
         <v>44230.09375</v>
       </c>
       <c r="C205" s="5" t="n">
-        <v>28.72</v>
+        <v>70.94</v>
       </c>
       <c r="D205" s="5" t="n">
         <v>0.02</v>
@@ -14640,7 +16307,7 @@
         <v>44230.10416666666</v>
       </c>
       <c r="C206" s="5" t="n">
-        <v>28.75</v>
+        <v>70.97</v>
       </c>
       <c r="D206" s="5" t="n">
         <v>0.02</v>
@@ -14672,7 +16339,7 @@
         <v>44230.11458333334</v>
       </c>
       <c r="C207" s="5" t="n">
-        <v>28.77</v>
+        <v>70.98999999999999</v>
       </c>
       <c r="D207" s="5" t="n">
         <v>0.02</v>
@@ -14704,7 +16371,7 @@
         <v>44230.125</v>
       </c>
       <c r="C208" s="5" t="n">
-        <v>28.8</v>
+        <v>71.02</v>
       </c>
       <c r="D208" s="5" t="n">
         <v>0.02</v>
@@ -14736,7 +16403,7 @@
         <v>44230.13541666666</v>
       </c>
       <c r="C209" s="5" t="n">
-        <v>28.82</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="D209" s="5" t="n">
         <v>0.02</v>
@@ -14768,7 +16435,7 @@
         <v>44230.14583333334</v>
       </c>
       <c r="C210" s="5" t="n">
-        <v>28.85</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>0.02</v>
@@ -14800,7 +16467,7 @@
         <v>44230.15625</v>
       </c>
       <c r="C211" s="5" t="n">
-        <v>28.87</v>
+        <v>71.09</v>
       </c>
       <c r="D211" s="5" t="n">
         <v>0.02</v>
@@ -14832,7 +16499,7 @@
         <v>44230.16666666666</v>
       </c>
       <c r="C212" s="5" t="n">
-        <v>28.9</v>
+        <v>71.12</v>
       </c>
       <c r="D212" s="5" t="n">
         <v>0.02</v>
@@ -14864,7 +16531,7 @@
         <v>44230.17708333334</v>
       </c>
       <c r="C213" s="5" t="n">
-        <v>28.92</v>
+        <v>71.14</v>
       </c>
       <c r="D213" s="5" t="n">
         <v>0.02</v>
@@ -14896,7 +16563,7 @@
         <v>44230.1875</v>
       </c>
       <c r="C214" s="5" t="n">
-        <v>28.95</v>
+        <v>71.17</v>
       </c>
       <c r="D214" s="5" t="n">
         <v>0.02</v>
@@ -14928,7 +16595,7 @@
         <v>44230.19791666666</v>
       </c>
       <c r="C215" s="5" t="n">
-        <v>28.97</v>
+        <v>71.19</v>
       </c>
       <c r="D215" s="5" t="n">
         <v>0.02</v>
@@ -14960,7 +16627,7 @@
         <v>44230.20833333334</v>
       </c>
       <c r="C216" s="5" t="n">
-        <v>29</v>
+        <v>71.22</v>
       </c>
       <c r="D216" s="5" t="n">
         <v>0.02</v>
@@ -14992,7 +16659,7 @@
         <v>44230.21875</v>
       </c>
       <c r="C217" s="5" t="n">
-        <v>29.02</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="D217" s="5" t="n">
         <v>0.02</v>
@@ -15024,7 +16691,7 @@
         <v>44230.22916666666</v>
       </c>
       <c r="C218" s="5" t="n">
-        <v>29.05</v>
+        <v>71.27</v>
       </c>
       <c r="D218" s="5" t="n">
         <v>0.02</v>
@@ -15056,7 +16723,7 @@
         <v>44230.23958333334</v>
       </c>
       <c r="C219" s="5" t="n">
-        <v>29.07</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="D219" s="5" t="n">
         <v>0.02</v>
@@ -15088,7 +16755,7 @@
         <v>44230.25</v>
       </c>
       <c r="C220" s="5" t="n">
-        <v>29.15</v>
+        <v>71.37</v>
       </c>
       <c r="D220" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15120,7 +16787,7 @@
         <v>44230.26041666666</v>
       </c>
       <c r="C221" s="5" t="n">
-        <v>29.22</v>
+        <v>71.44</v>
       </c>
       <c r="D221" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15152,7 +16819,7 @@
         <v>44230.27083333334</v>
       </c>
       <c r="C222" s="5" t="n">
-        <v>29.3</v>
+        <v>71.52</v>
       </c>
       <c r="D222" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15184,7 +16851,7 @@
         <v>44230.28125</v>
       </c>
       <c r="C223" s="5" t="n">
-        <v>29.37</v>
+        <v>71.59</v>
       </c>
       <c r="D223" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15216,7 +16883,7 @@
         <v>44230.29166666666</v>
       </c>
       <c r="C224" s="5" t="n">
-        <v>29.45</v>
+        <v>71.67</v>
       </c>
       <c r="D224" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15248,7 +16915,7 @@
         <v>44230.30208333334</v>
       </c>
       <c r="C225" s="5" t="n">
-        <v>29.6</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="D225" s="5" t="n">
         <v>0.14</v>
@@ -15280,7 +16947,7 @@
         <v>44230.3125</v>
       </c>
       <c r="C226" s="5" t="n">
-        <v>29.75</v>
+        <v>71.97</v>
       </c>
       <c r="D226" s="5" t="n">
         <v>0.14</v>
@@ -15312,7 +16979,7 @@
         <v>44230.32291666666</v>
       </c>
       <c r="C227" s="5" t="n">
-        <v>29.9</v>
+        <v>72.12</v>
       </c>
       <c r="D227" s="5" t="n">
         <v>0.14</v>
@@ -15344,7 +17011,7 @@
         <v>44230.33333333334</v>
       </c>
       <c r="C228" s="5" t="n">
-        <v>30.05</v>
+        <v>72.27</v>
       </c>
       <c r="D228" s="5" t="n">
         <v>0.14</v>
@@ -15376,7 +17043,7 @@
         <v>44230.34375</v>
       </c>
       <c r="C229" s="5" t="n">
-        <v>30.24</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="D229" s="5" t="n">
         <v>0.18</v>
@@ -15408,7 +17075,7 @@
         <v>44230.35416666666</v>
       </c>
       <c r="C230" s="5" t="n">
-        <v>30.54</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D230" s="5" t="n">
         <v>0.29</v>
@@ -15440,7 +17107,7 @@
         <v>44230.36458333334</v>
       </c>
       <c r="C231" s="5" t="n">
-        <v>30.84</v>
+        <v>73.06</v>
       </c>
       <c r="D231" s="5" t="n">
         <v>0.29</v>
@@ -15472,7 +17139,7 @@
         <v>44230.375</v>
       </c>
       <c r="C232" s="5" t="n">
-        <v>31.14</v>
+        <v>73.36</v>
       </c>
       <c r="D232" s="5" t="n">
         <v>0.29</v>
@@ -15504,7 +17171,7 @@
         <v>44230.38541666666</v>
       </c>
       <c r="C233" s="5" t="n">
-        <v>31.4</v>
+        <v>73.62</v>
       </c>
       <c r="D233" s="5" t="n">
         <v>0.26</v>
@@ -15536,7 +17203,7 @@
         <v>44230.39583333334</v>
       </c>
       <c r="C234" s="5" t="n">
-        <v>31.66</v>
+        <v>73.88</v>
       </c>
       <c r="D234" s="5" t="n">
         <v>0.26</v>
@@ -15568,7 +17235,7 @@
         <v>44230.40625</v>
       </c>
       <c r="C235" s="5" t="n">
-        <v>31.93</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="D235" s="5" t="n">
         <v>0.26</v>
@@ -15600,7 +17267,7 @@
         <v>44230.41666666666</v>
       </c>
       <c r="C236" s="5" t="n">
-        <v>32.19</v>
+        <v>74.41</v>
       </c>
       <c r="D236" s="5" t="n">
         <v>0.26</v>
@@ -15632,7 +17299,7 @@
         <v>44230.42708333334</v>
       </c>
       <c r="C237" s="5" t="n">
-        <v>32.38</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D237" s="5" t="n">
         <v>0.18</v>
@@ -15664,7 +17331,7 @@
         <v>44230.4375</v>
       </c>
       <c r="C238" s="5" t="n">
-        <v>32.57</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="D238" s="5" t="n">
         <v>0.18</v>
@@ -15695,8 +17362,12 @@
       <c r="B239" s="4" t="n">
         <v>44230.44791666666</v>
       </c>
-      <c r="C239" s="6" t="n"/>
-      <c r="D239" s="6" t="n"/>
+      <c r="C239" s="5" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="D239" s="5" t="n">
+        <v>0.18</v>
+      </c>
       <c r="E239" s="6" t="n">
         <v>1</v>
       </c>
@@ -15716,6 +17387,1670 @@
         <v>0</v>
       </c>
       <c r="K239" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="4" t="n">
+        <v>44230.45833333334</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>75.17</v>
+      </c>
+      <c r="D240" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E240" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="4" t="n">
+        <v>44230.46875</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="D241" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E241" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="4" t="n">
+        <v>44230.47916666666</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>75.61</v>
+      </c>
+      <c r="D242" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E242" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="4" t="n">
+        <v>44230.48958333334</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>75.84999999999999</v>
+      </c>
+      <c r="D243" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E243" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="4" t="n">
+        <v>44230.5</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>76.02</v>
+      </c>
+      <c r="D244" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E244" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="4" t="n">
+        <v>44230.51041666666</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>76.16</v>
+      </c>
+      <c r="D245" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E245" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="4" t="n">
+        <v>44230.52083333334</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D246" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E246" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="4" t="n">
+        <v>44230.53125</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>76.44</v>
+      </c>
+      <c r="D247" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E247" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="4" t="n">
+        <v>44230.54166666666</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>76.58</v>
+      </c>
+      <c r="D248" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E248" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="4" t="n">
+        <v>44230.55208333334</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>76.77</v>
+      </c>
+      <c r="D249" s="5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E249" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="4" t="n">
+        <v>44230.5625</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="D250" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E250" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="4" t="n">
+        <v>44230.57291666666</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="D251" s="5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E251" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="4" t="n">
+        <v>44230.58333333334</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>77.29000000000001</v>
+      </c>
+      <c r="D252" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E252" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="4" t="n">
+        <v>44230.59375</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>77.43000000000001</v>
+      </c>
+      <c r="D253" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E253" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="4" t="n">
+        <v>44230.60416666666</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="D254" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E254" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="4" t="n">
+        <v>44230.61458333334</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>77.70999999999999</v>
+      </c>
+      <c r="D255" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E255" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" s="4" t="n">
+        <v>44230.625</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>77.84999999999999</v>
+      </c>
+      <c r="D256" s="5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E256" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="4" t="n">
+        <v>44230.63541666666</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>78.02</v>
+      </c>
+      <c r="D257" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E257" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="4" t="n">
+        <v>44230.64583333334</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>78.19</v>
+      </c>
+      <c r="D258" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E258" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H258" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="4" t="n">
+        <v>44230.65625</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="D259" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E259" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="4" t="n">
+        <v>44230.66666666666</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>78.61</v>
+      </c>
+      <c r="D260" s="5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E260" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H260" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" s="4" t="n">
+        <v>44230.67708333334</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>78.91</v>
+      </c>
+      <c r="D261" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E261" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="4" t="n">
+        <v>44230.6875</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>79.20999999999999</v>
+      </c>
+      <c r="D262" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E262" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H262" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="4" t="n">
+        <v>44230.69791666666</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>79.51000000000001</v>
+      </c>
+      <c r="D263" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E263" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H263" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="4" t="n">
+        <v>44230.70833333334</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>79.81</v>
+      </c>
+      <c r="D264" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E264" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H264" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="4" t="n">
+        <v>44230.71875</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>80.11</v>
+      </c>
+      <c r="D265" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E265" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="4" t="n">
+        <v>44230.72916666666</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>80.41</v>
+      </c>
+      <c r="D266" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E266" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H266" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="4" t="n">
+        <v>44230.73958333334</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="D267" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E267" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="4" t="n">
+        <v>44230.75</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>81.01000000000001</v>
+      </c>
+      <c r="D268" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E268" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="4" t="n">
+        <v>44230.76041666666</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="D269" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E269" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="4" t="n">
+        <v>44230.77083333334</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>81.61</v>
+      </c>
+      <c r="D270" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E270" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="4" t="n">
+        <v>44230.78125</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="D271" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E271" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="4" t="n">
+        <v>44230.79166666666</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="D272" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E272" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="4" t="n">
+        <v>44230.80208333334</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>82.51000000000001</v>
+      </c>
+      <c r="D273" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E273" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H273" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="4" t="n">
+        <v>44230.8125</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>82.81</v>
+      </c>
+      <c r="D274" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E274" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H274" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="4" t="n">
+        <v>44230.82291666666</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>83.11</v>
+      </c>
+      <c r="D275" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E275" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H275" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="4" t="n">
+        <v>44230.83333333334</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>83.41</v>
+      </c>
+      <c r="D276" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E276" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H276" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="4" t="n">
+        <v>44230.84375</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="D277" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E277" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="4" t="n">
+        <v>44230.85416666666</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D278" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E278" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" s="4" t="n">
+        <v>44230.86458333334</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="D279" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E279" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="4" t="n">
+        <v>44230.875</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D280" s="5" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E280" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="4" t="n">
+        <v>44230.88541666666</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>84.68000000000001</v>
+      </c>
+      <c r="D281" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E281" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="4" t="n">
+        <v>44230.89583333334</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>84.75</v>
+      </c>
+      <c r="D282" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E282" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H282" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="4" t="n">
+        <v>44230.90625</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <v>84.83</v>
+      </c>
+      <c r="D283" s="5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E283" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="4" t="n">
+        <v>44230.91666666666</v>
+      </c>
+      <c r="C284" s="5" t="n">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="D284" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E284" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H284" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="4" t="n">
+        <v>44230.92708333334</v>
+      </c>
+      <c r="C285" s="5" t="n">
+        <v>84.88</v>
+      </c>
+      <c r="D285" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E285" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="4" t="n">
+        <v>44230.9375</v>
+      </c>
+      <c r="C286" s="5" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D286" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E286" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="4" t="n">
+        <v>44230.94791666666</v>
+      </c>
+      <c r="C287" s="5" t="n">
+        <v>84.93000000000001</v>
+      </c>
+      <c r="D287" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E287" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="4" t="n">
+        <v>44230.95833333334</v>
+      </c>
+      <c r="C288" s="5" t="n">
+        <v>84.95</v>
+      </c>
+      <c r="D288" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E288" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="4" t="n">
+        <v>44230.96875</v>
+      </c>
+      <c r="C289" s="5" t="n">
+        <v>84.98</v>
+      </c>
+      <c r="D289" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E289" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H289" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="4" t="n">
+        <v>44230.97916666666</v>
+      </c>
+      <c r="C290" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="D290" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E290" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" s="4" t="n">
+        <v>44230.98958333334</v>
+      </c>
+      <c r="C291" s="5" t="n">
+        <v>85.03</v>
+      </c>
+      <c r="D291" s="5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E291" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" s="6" t="n">
         <v>0</v>
       </c>
     </row>
